--- a/eosio_vs_evm.xlsx
+++ b/eosio_vs_evm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhi3700/F/coding/github_repos/evm_playground/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B122445-9448-6E4E-BE14-D66086EDC69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DB7969-9667-824A-B199-1AF450569522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14400" xr2:uid="{525611D5-18D7-41F8-A371-26E5FA616275}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14320" xr2:uid="{525611D5-18D7-41F8-A371-26E5FA616275}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,17 +454,6 @@
     <t>Interface</t>
   </si>
   <si>
-    <t>using distribute_action  = action_wrapper&lt;"distribute"_n, &amp;terraworlds::distribute&gt;;</t>
-  </si>
-  <si>
-    <t>interface InterfaceTerraworlds {
-   function distribute(uint256 nextId) external returns (bool);
-}</t>
-  </si>
-  <si>
-    <t>Using contract's function from inside another contract.</t>
-  </si>
-  <si>
     <t>Write the function inside the contract &amp; make the function available to external contract(s) using action_wrapper</t>
   </si>
   <si>
@@ -494,13 +483,123 @@
   </si>
   <si>
     <t>here, 2 transactions has to be done which takes gas fee (dynamic twice).</t>
+  </si>
+  <si>
+    <t>Using a contract's function from inside another contract.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>Define functions (to be used) as interface of SC-A inside the same file - "mytoken.hpp"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:
+using transfer_action  = action_wrapper&lt;"transfer"_n, &amp;mytoken::transfer&gt;;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t xml:space="preserve">
+Call inside a function of SC-B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:
+action(
+        permission_level{get_self(), "active"_n},
+        token_contract_ac,
+        "transfer"_n,
+        std::make_tuple(get_self(), commuter_ac, quantity, "commuter send " + quantity.to_string() + " money.")
+    ).send();
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>Define interface of SC-A inside SC-B file or a separate file - "IMyToken.sol"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+interface IMyToken {
+   function transfer(uint256 nextId) external returns (bool);
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>Call inside a function of SC-B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t xml:space="preserve">
+IMyToken(tokenSCAddr).transfer(_recipient, _amount)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,6 +634,17 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
     </font>
   </fonts>
   <fills count="2">
@@ -573,7 +683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -588,6 +698,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1004,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E29F14-69FA-4A1C-8576-9B2A132A653B}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1027,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -1291,7 +1404,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -1418,41 +1531,41 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="238" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F25" s="2"/>
     </row>

--- a/eosio_vs_evm.xlsx
+++ b/eosio_vs_evm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhi3700/F/coding/github_repos/evm_playground/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DB7969-9667-824A-B199-1AF450569522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0228CA10-ED4E-854D-ACC2-1EB6A0CA514F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14320" xr2:uid="{525611D5-18D7-41F8-A371-26E5FA616275}"/>
   </bookViews>
@@ -562,7 +562,7 @@
       </rPr>
       <t xml:space="preserve">
 interface IMyToken {
-   function transfer(uint256 nextId) external returns (bool);
+   function transfer(address to, uint256 amount) external returns (bool);
 }
 </t>
     </r>
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/eosio_vs_evm.xlsx
+++ b/eosio_vs_evm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhi3700/F/coding/github_repos/evm_playground/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0228CA10-ED4E-854D-ACC2-1EB6A0CA514F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2114AC4-285B-F44B-ADF8-11E4E6D223B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14320" xr2:uid="{525611D5-18D7-41F8-A371-26E5FA616275}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
   <si>
     <t>EOSIO</t>
   </si>
@@ -114,9 +114,6 @@
     <t>bytes32</t>
   </si>
   <si>
-    <t>32 bit</t>
-  </si>
-  <si>
     <t>msg.value</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>available as global var</t>
   </si>
   <si>
-    <t>address(this) or tx.origin</t>
-  </si>
-  <si>
     <t>contract repo (official)</t>
   </si>
   <si>
@@ -201,16 +195,10 @@
     <t>token standard</t>
   </si>
   <si>
-    <t>EOSIO token</t>
-  </si>
-  <si>
     <t>ERC20</t>
   </si>
   <si>
     <t>token transfer from 1 account to another account</t>
-  </si>
-  <si>
-    <t>transferFrom()</t>
   </si>
   <si>
     <t>transfer()</t>
@@ -379,9 +367,6 @@
     "max_authority_depth": 6
   }
 }</t>
-  </si>
-  <si>
-    <t>Blockchain 1st block</t>
   </si>
   <si>
     <t>Transaction data</t>
@@ -593,6 +578,69 @@
       <t xml:space="preserve">
 IMyToken(tokenSCAddr).transfer(_recipient, _amount)</t>
     </r>
+  </si>
+  <si>
+    <t>NFT standard</t>
+  </si>
+  <si>
+    <t>AtomicAssets</t>
+  </si>
+  <si>
+    <t>ERC721, ERC1155</t>
+  </si>
+  <si>
+    <t>Make real world assets into NFT on blockchain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A collection contains many assets/tokens.
+Each collection has market_fee/royalty_fee.
+If someone needs to drop their NFT packs, they don't need to deploy a contract. They can simply go to AtomicHub market platform &amp; then login using wallet &amp; then create collection, based on authority, mint the asset, put asset on sale.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlike EOSIO, here in EVM chains, a contract has to be deployed where there shall be multiple NFT assets (unique/same image/gif/vid).
+Collection (EOSIO) -&gt; multiple ERC721 (EVM) contracts.
+Collection (EOSIO) -&gt; single ERC1155 (EVM) contracts.
+</t>
+  </si>
+  <si>
+    <t>start a node</t>
+  </si>
+  <si>
+    <t>Blockchain 1st/genesis block</t>
+  </si>
+  <si>
+    <t>address(this)</t>
+  </si>
+  <si>
+    <t>32 bit unsigned integer</t>
+  </si>
+  <si>
+    <t>eosio.token</t>
+  </si>
+  <si>
+    <t>transfer(), delegate transfer authority via transferFrom()</t>
+  </si>
+  <si>
+    <t>Contract storage</t>
+  </si>
+  <si>
+    <t>based on RAM quota of the payer</t>
+  </si>
+  <si>
+    <t>unlimited</t>
+  </si>
+  <si>
+    <t>Contract size limit</t>
+  </si>
+  <si>
+    <t>based on RAM quota of the contract acc</t>
+  </si>
+  <si>
+    <t>24.5 KB</t>
+  </si>
+  <si>
+    <t>run a function while paying some money</t>
   </si>
 </sst>
 </file>
@@ -683,7 +731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -695,9 +743,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1115,10 +1160,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E29F14-69FA-4A1C-8576-9B2A132A653B}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1140,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -1154,94 +1202,96 @@
     </row>
     <row r="2" spans="1:6" ht="409.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1260,7 +1310,7 @@
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1272,7 +1322,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -1288,7 +1338,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
@@ -1316,7 +1366,7 @@
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
@@ -1330,89 +1380,89 @@
     </row>
     <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1420,27 +1470,27 @@
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1448,129 +1498,177 @@
     </row>
     <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="238" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="F26" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="238" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="C27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="238" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="E28" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F23" xr:uid="{24E29F14-69FA-4A1C-8576-9B2A132A653B}"/>
+  <autoFilter ref="A1:F25" xr:uid="{24E29F14-69FA-4A1C-8576-9B2A132A653B}"/>
   <hyperlinks>
     <hyperlink ref="E9" r:id="rId1" xr:uid="{097BD82B-43D0-478B-A616-A3D0ED0E8BD4}"/>
     <hyperlink ref="B13" r:id="rId2" xr:uid="{BC7E8774-8200-4B94-B8CC-23F9BC4821B0}"/>
